--- a/data/trans_camb/P11_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 2,2</t>
+          <t>-3,78; 2,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 0,6</t>
+          <t>-5,39; 0,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 4,32</t>
+          <t>-4,43; 4,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 5,51</t>
+          <t>-1,51; 5,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 2,62</t>
+          <t>-3,99; 2,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 9,95</t>
+          <t>-1,42; 9,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 2,59</t>
+          <t>-1,98; 2,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 0,93</t>
+          <t>-3,99; 0,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 5,27</t>
+          <t>-1,86; 5,26</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-48,22; 47,52</t>
+          <t>-48,12; 48,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-68,23; 16,74</t>
+          <t>-65,0; 17,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-59,94; 78,89</t>
+          <t>-58,49; 82,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,18; 100,33</t>
+          <t>-17,77; 103,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,64; 48,41</t>
+          <t>-46,08; 50,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 170,58</t>
+          <t>-19,51; 172,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,86; 45,37</t>
+          <t>-24,68; 51,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,81; 16,31</t>
+          <t>-50,03; 10,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-19,53; 89,31</t>
+          <t>-25,27; 88,69</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 5,5</t>
+          <t>-0,23; 5,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 5,51</t>
+          <t>-0,09; 5,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,48; 14,03</t>
+          <t>4,83; 14,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,89; -1,08</t>
+          <t>-9,23; -1,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 0,7</t>
+          <t>-7,54; 0,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 5,62</t>
+          <t>-3,0; 6,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 1,23</t>
+          <t>-3,05; 1,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 2,17</t>
+          <t>-2,46; 2,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 8,8</t>
+          <t>2,36; 8,99</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 118,94</t>
+          <t>-4,1; 119,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 121,47</t>
+          <t>-3,48; 125,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>55,14; 280,04</t>
+          <t>68,98; 291,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,07; -8,31</t>
+          <t>-56,09; -12,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,11; 6,29</t>
+          <t>-45,33; 2,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,84; 45,35</t>
+          <t>-19,82; 47,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,18; 14,4</t>
+          <t>-27,96; 17,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,79; 24,76</t>
+          <t>-22,69; 25,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,81; 102,14</t>
+          <t>21,6; 104,38</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 5,44</t>
+          <t>-2,12; 5,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 4,5</t>
+          <t>-2,9; 4,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,75; 12,29</t>
+          <t>3,41; 11,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 2,39</t>
+          <t>-5,94; 2,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,08; -2,28</t>
+          <t>-9,72; -1,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 6,5</t>
+          <t>-2,32; 5,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 2,74</t>
+          <t>-2,75; 2,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,68; -0,07</t>
+          <t>-5,44; 0,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,77; 7,88</t>
+          <t>1,7; 7,76</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 61,91</t>
+          <t>-17,08; 59,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-24,32; 49,54</t>
+          <t>-22,7; 48,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28,89; 136,09</t>
+          <t>25,68; 130,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,22; 12,98</t>
+          <t>-25,95; 15,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,67; -11,77</t>
+          <t>-43,75; -9,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 35,91</t>
+          <t>-10,58; 32,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,72; 19,34</t>
+          <t>-16,16; 17,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-32,97; -0,6</t>
+          <t>-30,69; 1,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,06; 54,42</t>
+          <t>9,85; 54,72</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 0,05</t>
+          <t>-8,99; 0,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 5,18</t>
+          <t>-4,09; 5,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 11,24</t>
+          <t>0,2; 11,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 2,78</t>
+          <t>-8,25; 3,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,34; -0,84</t>
+          <t>-11,39; -1,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 10,08</t>
+          <t>-0,76; 9,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,48; -0,3</t>
+          <t>-7,33; -0,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 0,56</t>
+          <t>-6,44; 0,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,24; 9,01</t>
+          <t>1,38; 9,59</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-42,89; 1,64</t>
+          <t>-43,23; 3,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,94; 34,88</t>
+          <t>-20,26; 36,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 68,25</t>
+          <t>1,5; 74,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-24,76; 9,01</t>
+          <t>-25,24; 12,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-34,77; -3,08</t>
+          <t>-34,68; -3,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 38,14</t>
+          <t>-2,28; 36,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,39; -1,22</t>
+          <t>-28,46; -1,35</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-24,86; 2,42</t>
+          <t>-24,64; 3,4</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,88; 41,37</t>
+          <t>5,41; 43,16</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 2,4</t>
+          <t>-10,39; 2,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 0,01</t>
+          <t>-12,47; 0,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,01; 13,81</t>
+          <t>2,35; 14,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,31; 14,11</t>
+          <t>0,83; 14,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 9,62</t>
+          <t>-3,26; 9,73</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,97; 12,81</t>
+          <t>1,07; 12,73</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 6,61</t>
+          <t>-2,99; 6,51</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 2,92</t>
+          <t>-5,8; 3,46</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,4; 11,84</t>
+          <t>3,64; 11,75</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-29,69; 8,15</t>
+          <t>-30,25; 11,44</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-36,38; 0,74</t>
+          <t>-37,06; 1,39</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>5,88; 51,09</t>
+          <t>6,58; 52,82</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2,82; 39,96</t>
+          <t>1,79; 42,96</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 27,75</t>
+          <t>-7,86; 28,7</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>2,17; 37,39</t>
+          <t>2,46; 36,45</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 21,0</t>
+          <t>-7,92; 20,08</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 9,05</t>
+          <t>-15,73; 10,47</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>9,1; 37,77</t>
+          <t>9,44; 36,12</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 8,04</t>
+          <t>-4,09; 8,19</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 0,68</t>
+          <t>-11,73; 0,5</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 0,77</t>
+          <t>-10,41; -0,14</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,29; 12,98</t>
+          <t>2,48; 13,29</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 6,07</t>
+          <t>-4,69; 6,19</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,14; 17,65</t>
+          <t>2,64; 18,02</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,52; 9,2</t>
+          <t>1,05; 9,18</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 1,51</t>
+          <t>-6,26; 1,62</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 12,39</t>
+          <t>-1,56; 12,05</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 17,79</t>
+          <t>-8,31; 18,76</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-22,3; 1,28</t>
+          <t>-22,69; 1,27</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-19,74; 1,89</t>
+          <t>-20,48; -0,33</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>3,67; 22,49</t>
+          <t>3,72; 22,78</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 10,42</t>
+          <t>-7,3; 10,69</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>3,12; 29,76</t>
+          <t>4,04; 30,19</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>2,63; 17,32</t>
+          <t>1,8; 17,21</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 2,77</t>
+          <t>-10,89; 3,09</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 22,43</t>
+          <t>-2,86; 21,99</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 2,61</t>
+          <t>-1,27; 2,52</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,23</t>
+          <t>-1,53; 2,21</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5,9; 10,35</t>
+          <t>6,11; 10,35</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,36</t>
+          <t>-0,01; 4,32</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 1,7</t>
+          <t>-2,64; 1,85</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>7,12; 15,79</t>
+          <t>7,0; 16,26</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 2,85</t>
+          <t>-0,08; 2,95</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,55</t>
+          <t>-1,48; 1,58</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>7,53; 12,92</t>
+          <t>7,63; 13,12</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 15,18</t>
+          <t>-6,6; 14,51</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 12,95</t>
+          <t>-8,07; 12,82</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>31,33; 60,11</t>
+          <t>32,07; 59,59</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 15,43</t>
+          <t>0,03; 15,7</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 6,03</t>
+          <t>-8,81; 6,47</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>23,74; 53,59</t>
+          <t>23,18; 55,92</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 12,3</t>
+          <t>-0,34; 12,69</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 6,77</t>
+          <t>-6,07; 6,94</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>30,96; 55,75</t>
+          <t>31,38; 55,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P11_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 2,23</t>
+          <t>-3,92; 2,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 0,64</t>
+          <t>-5,19; 1,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 4,45</t>
+          <t>-4,38; 4,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 5,42</t>
+          <t>-1,21; 5,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 2,77</t>
+          <t>-4,1; 2,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 9,54</t>
+          <t>-1,21; 9,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,92</t>
+          <t>-1,87; 2,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 0,52</t>
+          <t>-3,76; 0,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 5,26</t>
+          <t>-1,86; 5,15</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-48,12; 48,26</t>
+          <t>-47,22; 46,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-65,0; 17,6</t>
+          <t>-65,23; 23,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-58,49; 82,54</t>
+          <t>-58,87; 96,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,77; 103,82</t>
+          <t>-14,9; 101,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,08; 50,89</t>
+          <t>-46,71; 49,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,51; 172,3</t>
+          <t>-16,38; 171,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,68; 51,69</t>
+          <t>-23,9; 53,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-50,03; 10,31</t>
+          <t>-49,17; 15,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-25,27; 88,69</t>
+          <t>-24,68; 93,73</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 5,45</t>
+          <t>-0,13; 5,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 5,65</t>
+          <t>-0,43; 5,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 14,13</t>
+          <t>5,03; 14,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,23; -1,66</t>
+          <t>-8,63; -1,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 0,16</t>
+          <t>-6,94; 1,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 6,12</t>
+          <t>-2,91; 6,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 1,41</t>
+          <t>-3,32; 1,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 2,22</t>
+          <t>-2,42; 2,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 8,99</t>
+          <t>2,52; 8,86</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 119,06</t>
+          <t>-2,71; 118,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 125,34</t>
+          <t>-6,48; 117,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>68,98; 291,44</t>
+          <t>68,4; 293,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-56,09; -12,65</t>
+          <t>-54,93; -9,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,33; 2,88</t>
+          <t>-42,69; 9,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,82; 47,55</t>
+          <t>-18,88; 51,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,96; 17,66</t>
+          <t>-30,3; 14,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 25,36</t>
+          <t>-23,04; 27,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,6; 104,38</t>
+          <t>23,09; 99,22</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 5,18</t>
+          <t>-1,98; 5,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 4,25</t>
+          <t>-3,01; 4,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,41; 11,75</t>
+          <t>3,73; 12,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 2,78</t>
+          <t>-5,76; 2,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,72; -1,84</t>
+          <t>-10,04; -1,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 5,97</t>
+          <t>-2,21; 6,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 2,5</t>
+          <t>-2,63; 3,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 0,1</t>
+          <t>-5,49; 0,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,7; 7,76</t>
+          <t>1,64; 8,22</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-17,08; 59,44</t>
+          <t>-16,44; 58,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,7; 48,62</t>
+          <t>-23,61; 50,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,68; 130,79</t>
+          <t>29,66; 135,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,95; 15,64</t>
+          <t>-25,3; 16,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-43,75; -9,95</t>
+          <t>-44,37; -7,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 32,0</t>
+          <t>-10,53; 33,83</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 17,71</t>
+          <t>-15,26; 21,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-30,69; 1,08</t>
+          <t>-31,26; 2,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,85; 54,72</t>
+          <t>9,11; 57,16</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 0,42</t>
+          <t>-8,85; 0,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 5,37</t>
+          <t>-4,16; 4,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,2; 11,64</t>
+          <t>-0,11; 11,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 3,23</t>
+          <t>-8,75; 2,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,39; -1,0</t>
+          <t>-11,76; -1,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 9,97</t>
+          <t>0,07; 9,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,33; -0,27</t>
+          <t>-6,9; 0,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 0,7</t>
+          <t>-6,58; 0,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,38; 9,59</t>
+          <t>1,51; 9,44</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-43,23; 3,04</t>
+          <t>-43,19; 2,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,26; 36,31</t>
+          <t>-20,08; 30,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,5; 74,68</t>
+          <t>-0,77; 68,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,24; 12,16</t>
+          <t>-26,3; 7,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-34,68; -3,97</t>
+          <t>-36,59; -4,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 36,89</t>
+          <t>0,22; 37,5</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,46; -1,35</t>
+          <t>-27,2; 0,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-24,64; 3,4</t>
+          <t>-25,51; 1,96</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,41; 43,16</t>
+          <t>5,97; 41,92</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 2,96</t>
+          <t>-11,32; 1,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 0,36</t>
+          <t>-12,64; -0,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,35; 14,47</t>
+          <t>1,86; 14,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,83; 14,88</t>
+          <t>0,35; 14,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 9,73</t>
+          <t>-3,56; 9,7</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,07; 12,73</t>
+          <t>1,26; 12,94</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 6,51</t>
+          <t>-2,87; 6,87</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 3,46</t>
+          <t>-6,19; 2,89</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,64; 11,75</t>
+          <t>3,32; 11,75</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-30,25; 11,44</t>
+          <t>-32,4; 7,61</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-37,06; 1,39</t>
+          <t>-37,28; -0,59</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>6,58; 52,82</t>
+          <t>5,4; 50,83</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1,79; 42,96</t>
+          <t>0,75; 41,23</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 28,7</t>
+          <t>-8,56; 28,73</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>2,46; 36,45</t>
+          <t>2,78; 37,56</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 20,08</t>
+          <t>-7,79; 21,19</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-15,73; 10,47</t>
+          <t>-16,49; 8,72</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>9,44; 36,12</t>
+          <t>8,9; 36,22</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 8,19</t>
+          <t>-4,49; 8,63</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 0,5</t>
+          <t>-11,37; 0,18</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,41; -0,14</t>
+          <t>-10,75; 0,39</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,48; 13,29</t>
+          <t>2,4; 12,68</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 6,19</t>
+          <t>-5,05; 5,87</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,64; 18,02</t>
+          <t>2,57; 17,19</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,05; 9,18</t>
+          <t>1,5; 9,02</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 1,62</t>
+          <t>-6,49; 1,52</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 12,05</t>
+          <t>-1,59; 11,63</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 18,76</t>
+          <t>-8,75; 19,62</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 1,27</t>
+          <t>-22,36; 0,45</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-20,48; -0,33</t>
+          <t>-21,27; 0,76</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>3,72; 22,78</t>
+          <t>3,76; 21,68</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 10,69</t>
+          <t>-8,01; 10,03</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>4,04; 30,19</t>
+          <t>4,0; 30,11</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>1,8; 17,21</t>
+          <t>2,47; 16,84</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 3,09</t>
+          <t>-11,27; 2,8</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 21,99</t>
+          <t>-2,86; 21,22</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 2,52</t>
+          <t>-1,17; 2,66</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 2,21</t>
+          <t>-1,54; 2,29</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -1996,32 +1996,32 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 4,32</t>
+          <t>-0,19; 4,21</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 1,85</t>
+          <t>-2,52; 1,99</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>7,0; 16,26</t>
+          <t>7,17; 16,51</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 2,95</t>
+          <t>-0,02; 3,06</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,58</t>
+          <t>-1,34; 1,66</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>7,63; 13,12</t>
+          <t>7,52; 12,72</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 14,51</t>
+          <t>-6,22; 15,32</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 12,82</t>
+          <t>-8,14; 13,38</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>32,07; 59,59</t>
+          <t>32,63; 61,02</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>0,03; 15,7</t>
+          <t>-0,51; 14,98</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 6,47</t>
+          <t>-8,45; 7,15</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>23,18; 55,92</t>
+          <t>23,8; 56,72</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 12,69</t>
+          <t>-0,02; 13,25</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 6,94</t>
+          <t>-5,52; 7,24</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>31,38; 55,93</t>
+          <t>30,05; 54,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P11_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas</t>
+          <t>Población a la que el dolor le dificultó su trabajo habitual las últimas 4 semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 2,35</t>
+          <t>-3,86; 2,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 1,17</t>
+          <t>-5,44; 0,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 4,96</t>
+          <t>-4,66; 4,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 5,78</t>
+          <t>-1,7; 5,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 2,51</t>
+          <t>-4,08; 2,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 9,71</t>
+          <t>-0,95; 9,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 2,91</t>
+          <t>-1,95; 2,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 0,89</t>
+          <t>-3,79; 0,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 5,15</t>
+          <t>-1,36; 5,27</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-47,22; 46,8</t>
+          <t>-48,22; 47,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-65,23; 23,25</t>
+          <t>-68,23; 16,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-58,87; 96,12</t>
+          <t>-59,94; 78,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 101,66</t>
+          <t>-21,18; 100,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,71; 49,47</t>
+          <t>-47,64; 48,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 171,3</t>
+          <t>-10,68; 170,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,9; 53,57</t>
+          <t>-24,86; 45,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-49,17; 15,59</t>
+          <t>-48,81; 16,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-24,68; 93,73</t>
+          <t>-19,53; 89,31</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 5,56</t>
+          <t>-0,13; 5,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 5,47</t>
+          <t>-0,19; 5,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,03; 14,21</t>
+          <t>4,48; 14,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,63; -1,24</t>
+          <t>-8,89; -1,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 1,06</t>
+          <t>-7,15; 0,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 6,23</t>
+          <t>-3,45; 5,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 1,25</t>
+          <t>-3,25; 1,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 2,27</t>
+          <t>-2,49; 2,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 8,86</t>
+          <t>2,45; 8,8</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 118,15</t>
+          <t>-3,25; 118,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 117,21</t>
+          <t>-6,16; 121,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>68,4; 293,9</t>
+          <t>55,14; 280,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,93; -9,7</t>
+          <t>-54,07; -8,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,69; 9,25</t>
+          <t>-44,11; 6,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,88; 51,1</t>
+          <t>-22,84; 45,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,3; 14,53</t>
+          <t>-30,18; 14,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,04; 27,37</t>
+          <t>-23,79; 24,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,09; 99,22</t>
+          <t>22,81; 102,14</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 5,35</t>
+          <t>-1,79; 5,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 4,3</t>
+          <t>-3,05; 4,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,73; 12,15</t>
+          <t>3,75; 12,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 2,87</t>
+          <t>-6,0; 2,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,04; -1,65</t>
+          <t>-10,08; -2,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 6,28</t>
+          <t>-2,28; 6,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 3,04</t>
+          <t>-2,89; 2,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 0,24</t>
+          <t>-5,68; -0,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,64; 8,22</t>
+          <t>1,77; 7,88</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,44; 58,83</t>
+          <t>-14,87; 61,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-23,61; 50,45</t>
+          <t>-24,32; 49,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,66; 135,97</t>
+          <t>28,89; 136,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,3; 16,36</t>
+          <t>-26,22; 12,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,37; -7,84</t>
+          <t>-44,67; -11,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 33,83</t>
+          <t>-9,8; 35,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 21,53</t>
+          <t>-16,72; 19,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,26; 2,07</t>
+          <t>-32,97; -0,6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,11; 57,16</t>
+          <t>10,06; 54,42</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 0,44</t>
+          <t>-9,26; 0,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 4,92</t>
+          <t>-4,25; 5,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 11,31</t>
+          <t>-1,24; 11,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 2,09</t>
+          <t>-7,85; 2,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,76; -1,09</t>
+          <t>-11,34; -0,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,07; 9,98</t>
+          <t>-0,43; 10,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 0,08</t>
+          <t>-7,48; -0,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 0,53</t>
+          <t>-6,43; 0,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,51; 9,44</t>
+          <t>1,24; 9,01</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-43,19; 2,52</t>
+          <t>-42,89; 1,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,08; 30,94</t>
+          <t>-19,94; 34,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 68,56</t>
+          <t>-5,69; 68,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-26,3; 7,76</t>
+          <t>-24,76; 9,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-36,59; -4,42</t>
+          <t>-34,77; -3,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,22; 37,5</t>
+          <t>-0,49; 38,14</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-27,2; 0,34</t>
+          <t>-28,39; -1,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-25,51; 1,96</t>
+          <t>-24,86; 2,42</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,97; 41,92</t>
+          <t>4,88; 41,37</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 1,96</t>
+          <t>-9,89; 2,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,64; -0,21</t>
+          <t>-12,56; 0,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,86; 14,0</t>
+          <t>2,01; 13,81</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,35; 14,34</t>
+          <t>1,31; 14,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 9,7</t>
+          <t>-3,77; 9,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,26; 12,94</t>
+          <t>0,97; 12,81</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 6,87</t>
+          <t>-2,32; 6,61</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 2,89</t>
+          <t>-5,74; 2,92</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,32; 11,75</t>
+          <t>3,4; 11,84</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-32,4; 7,61</t>
+          <t>-29,69; 8,15</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-37,28; -0,59</t>
+          <t>-36,38; 0,74</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>5,4; 50,83</t>
+          <t>5,88; 51,09</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,75; 41,23</t>
+          <t>2,82; 39,96</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 28,73</t>
+          <t>-9,11; 27,75</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>2,78; 37,56</t>
+          <t>2,17; 37,39</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 21,19</t>
+          <t>-6,19; 21,0</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-16,49; 8,72</t>
+          <t>-15,65; 9,05</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>8,9; 36,22</t>
+          <t>9,1; 37,77</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 8,63</t>
+          <t>-4,51; 8,04</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 0,18</t>
+          <t>-11,09; 0,68</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 0,39</t>
+          <t>-9,97; 0,77</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,4; 12,68</t>
+          <t>2,29; 12,98</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 5,87</t>
+          <t>-4,48; 6,07</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,57; 17,19</t>
+          <t>2,14; 17,65</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,5; 9,02</t>
+          <t>1,52; 9,2</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 1,52</t>
+          <t>-6,45; 1,51</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 11,63</t>
+          <t>-1,12; 12,39</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 19,62</t>
+          <t>-8,66; 17,79</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-22,36; 0,45</t>
+          <t>-22,3; 1,28</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 0,76</t>
+          <t>-19,74; 1,89</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>3,76; 21,68</t>
+          <t>3,67; 22,49</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 10,03</t>
+          <t>-7,04; 10,42</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>4,0; 30,11</t>
+          <t>3,12; 29,76</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>2,47; 16,84</t>
+          <t>2,63; 17,32</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 2,8</t>
+          <t>-11,22; 2,77</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 21,22</t>
+          <t>-2,02; 22,43</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 2,66</t>
+          <t>-1,23; 2,61</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 2,29</t>
+          <t>-1,61; 2,23</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>6,11; 10,35</t>
+          <t>5,9; 10,35</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 4,21</t>
+          <t>-0,24; 4,36</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 1,99</t>
+          <t>-2,73; 1,7</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>7,17; 16,51</t>
+          <t>7,12; 15,79</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 3,06</t>
+          <t>-0,13; 2,85</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 1,66</t>
+          <t>-1,48; 1,55</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>7,52; 12,72</t>
+          <t>7,53; 12,92</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 15,32</t>
+          <t>-6,4; 15,18</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 13,38</t>
+          <t>-8,49; 12,95</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>32,63; 61,02</t>
+          <t>31,33; 60,11</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 14,98</t>
+          <t>-0,81; 15,43</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 7,15</t>
+          <t>-9,02; 6,03</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>23,8; 56,72</t>
+          <t>23,74; 53,59</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 13,25</t>
+          <t>-0,57; 12,3</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 7,24</t>
+          <t>-5,99; 6,77</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>30,05; 54,39</t>
+          <t>30,96; 55,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P11_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,81</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 4,32</t>
+          <t>-3,93; 5,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 9,95</t>
+          <t>-0,73; 10,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 5,27</t>
+          <t>-1,13; 5,91</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-7,41%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>53,92%</t>
+          <t>56,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,49%</t>
+          <t>26,6%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-59,94; 78,89</t>
+          <t>-52,58; 117,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 170,58</t>
+          <t>-9,64; 175,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-19,53; 89,31</t>
+          <t>-16,59; 107,15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,14</t>
+          <t>9,51</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>5,07</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,48; 14,03</t>
+          <t>4,64; 14,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 5,62</t>
+          <t>-5,69; 4,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 8,8</t>
+          <t>1,18; 8,61</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>157,17%</t>
+          <t>163,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>57,48%</t>
+          <t>52,56%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>55,14; 280,04</t>
+          <t>61,1; 292,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,84; 45,35</t>
+          <t>-36,83; 36,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,81; 102,14</t>
+          <t>12,53; 102,52</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,79</t>
+          <t>8,12</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>5,15</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,75; 12,29</t>
+          <t>4,01; 12,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 6,5</t>
+          <t>-1,78; 7,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,77; 7,88</t>
+          <t>2,09; 8,29</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>73,15%</t>
+          <t>76,32%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>30,35%</t>
+          <t>32,71%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28,89; 136,09</t>
+          <t>30,76; 140,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 35,91</t>
+          <t>-7,57; 38,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,06; 54,42</t>
+          <t>12,1; 57,52</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>1,68</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 11,24</t>
+          <t>-12,9; 9,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 10,08</t>
+          <t>-2,39; 9,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,24; 9,01</t>
+          <t>-8,49; 7,59</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>34,56%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>6,96%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 68,25</t>
+          <t>-59,5; 57,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 38,14</t>
+          <t>-6,37; 34,32</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,88; 41,37</t>
+          <t>-33,39; 33,11</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8,11</t>
+          <t>8,51</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,28</t>
+          <t>7,53</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>7,61</t>
+          <t>7,9</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,01; 13,81</t>
+          <t>2,41; 14,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,97; 12,81</t>
+          <t>1,18; 13,04</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,4; 11,84</t>
+          <t>3,75; 12,27</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>27,61%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>22,77%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>5,88; 51,09</t>
+          <t>6,98; 52,29</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>2,17; 37,39</t>
+          <t>2,89; 37,96</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>9,1; 37,77</t>
+          <t>9,87; 38,9</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-5,7</t>
+          <t>-5,62</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-4,95</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>7,78</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>8,05</t>
+          <t>13,42</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>5,3</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-3,09</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>8,97</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 8,04</t>
+          <t>-6,0; 9,83</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 0,68</t>
+          <t>-13,39; 1,82</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 0,77</t>
+          <t>-8,95; 4,96</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,29; 12,98</t>
+          <t>-2,61; 12,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 6,07</t>
+          <t>-7,78; 7,17</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,14; 17,65</t>
+          <t>-5,01; 35,36</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,52; 9,2</t>
+          <t>-1,96; 9,2</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 1,51</t>
+          <t>-8,56; 2,37</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 12,39</t>
+          <t>-4,21; 30,95</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-12,02%</t>
+          <t>-14,89%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-10,44%</t>
+          <t>-5,43%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>-1,03%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>24,6%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-4,08%</t>
+          <t>-6,6%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>19,16%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 17,79</t>
+          <t>-14,06; 28,93</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-22,3; 1,28</t>
+          <t>-31,15; 5,84</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-19,74; 1,89</t>
+          <t>-20,68; 15,22</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>3,67; 22,49</t>
+          <t>-4,43; 22,99</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 10,42</t>
+          <t>-13,44; 14,26</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>3,12; 29,76</t>
+          <t>-8,96; 72,0</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>2,63; 17,32</t>
+          <t>-3,97; 21,03</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 2,77</t>
+          <t>-17,53; 5,51</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 22,43</t>
+          <t>-9,0; 66,23</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-6,7</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>8,34</t>
+          <t>-9,46</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>9,63</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>9,9</t>
+          <t>10,51</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>5,86</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>9,4</t>
+          <t>2,42</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 2,61</t>
+          <t>-9,03; 9,43</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,23</t>
+          <t>-15,64; 1,43</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5,9; 10,35</t>
+          <t>-17,08; -1,81</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,36</t>
+          <t>2,94; 17,39</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 1,7</t>
+          <t>-7,76; 7,91</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>7,12; 15,79</t>
+          <t>4,11; 16,72</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 2,85</t>
+          <t>0,48; 11,5</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,55</t>
+          <t>-7,78; 3,62</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>7,53; 12,92</t>
+          <t>-2,12; 7,33</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>-0,02%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>-11,01%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>45,87%</t>
+          <t>-15,54%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>14,14%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-1,33%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>33,91%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>-3,1%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>39,55%</t>
+          <t>3,7%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-14,2; 17,09</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-24,08; 2,48</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-26,09; -3,44</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>4,12; 27,21</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-10,73; 12,26</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>5,6; 26,46</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>0,69; 18,7</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-11,38; 5,79</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-3,04; 11,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>6,69</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>2,13</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-0,39</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>11,0</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>8,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 2,61</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-1,61; 2,23</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>1,25; 9,47</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,24; 4,36</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-2,73; 1,7</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>6,47; 21,66</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-0,13; 2,85</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 1,55</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>5,53; 15,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>2,08%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>36,81%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>7,3%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-1,33%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>37,68%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>6,12%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,1%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>37,77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-6,4; 15,18</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-8,49; 12,95</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>31,33; 60,11</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>7,16; 53,44</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-0,81; 15,43</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-9,02; 6,03</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>23,74; 53,59</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>21,79; 75,42</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-0,57; 12,3</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-5,99; 6,77</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>30,96; 55,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>22,54; 63,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P11_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 2,2</t>
+          <t>-3,95; 2,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 0,6</t>
+          <t>-5,2; 0,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 5,65</t>
+          <t>-3,8; 6,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 5,51</t>
+          <t>-1,9; 5,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 2,62</t>
+          <t>-4,02; 2,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 10,13</t>
+          <t>-1,42; 9,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 2,59</t>
+          <t>-1,58; 2,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 0,93</t>
+          <t>-3,82; 0,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 5,91</t>
+          <t>-1,2; 6,27</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-48,22; 47,52</t>
+          <t>-49,65; 46,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-68,23; 16,74</t>
+          <t>-64,89; 23,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-52,58; 117,43</t>
+          <t>-51,01; 113,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,18; 100,33</t>
+          <t>-23,38; 99,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,64; 48,41</t>
+          <t>-46,81; 47,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 175,24</t>
+          <t>-19,07; 164,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,86; 45,37</t>
+          <t>-20,19; 51,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,81; 16,31</t>
+          <t>-48,47; 13,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 107,15</t>
+          <t>-17,22; 107,27</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 5,5</t>
+          <t>-0,06; 5,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 5,51</t>
+          <t>-0,45; 5,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,64; 14,45</t>
+          <t>4,98; 14,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,89; -1,08</t>
+          <t>-8,75; -1,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 0,7</t>
+          <t>-7,02; 0,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 4,73</t>
+          <t>-5,86; 4,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 1,23</t>
+          <t>-3,0; 1,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 2,17</t>
+          <t>-2,38; 2,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 8,61</t>
+          <t>0,79; 8,39</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 118,94</t>
+          <t>-1,55; 113,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 121,47</t>
+          <t>-7,22; 123,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>61,1; 292,51</t>
+          <t>74,14; 306,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,07; -8,31</t>
+          <t>-54,66; -10,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,11; 6,29</t>
+          <t>-44,4; 3,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,83; 36,71</t>
+          <t>-39,05; 35,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,18; 14,4</t>
+          <t>-28,35; 17,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,79; 24,76</t>
+          <t>-22,67; 28,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,53; 102,52</t>
+          <t>9,26; 97,29</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 5,44</t>
+          <t>-1,94; 5,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 4,5</t>
+          <t>-2,63; 4,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,01; 12,47</t>
+          <t>4,21; 12,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 2,39</t>
+          <t>-5,66; 3,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,08; -2,28</t>
+          <t>-10,01; -1,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 7,02</t>
+          <t>-1,34; 7,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 2,74</t>
+          <t>-2,87; 2,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,68; -0,07</t>
+          <t>-5,24; 0,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,09; 8,29</t>
+          <t>1,99; 8,1</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 61,91</t>
+          <t>-15,42; 60,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-24,32; 49,54</t>
+          <t>-21,69; 53,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>30,76; 140,3</t>
+          <t>33,25; 140,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,22; 12,98</t>
+          <t>-25,14; 16,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,67; -11,77</t>
+          <t>-45,3; -8,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 38,88</t>
+          <t>-5,78; 39,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,72; 19,34</t>
+          <t>-16,5; 20,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-32,97; -0,6</t>
+          <t>-30,97; 1,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,1; 57,52</t>
+          <t>11,1; 55,04</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 0,05</t>
+          <t>-8,7; 0,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 5,18</t>
+          <t>-4,51; 5,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 9,86</t>
+          <t>-11,98; 9,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 2,78</t>
+          <t>-8,5; 2,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,34; -0,84</t>
+          <t>-11,53; -0,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 9,27</t>
+          <t>-3,02; 9,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,48; -0,3</t>
+          <t>-6,99; 0,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 0,56</t>
+          <t>-6,19; 0,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 7,59</t>
+          <t>-8,8; 7,88</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-42,89; 1,64</t>
+          <t>-42,22; 0,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,94; 34,88</t>
+          <t>-21,6; 32,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-59,5; 57,0</t>
+          <t>-55,87; 56,4</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-24,76; 9,01</t>
+          <t>-26,47; 9,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-34,77; -3,08</t>
+          <t>-35,72; -3,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 34,32</t>
+          <t>-8,54; 33,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,39; -1,22</t>
+          <t>-27,3; 0,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-24,86; 2,42</t>
+          <t>-23,88; 3,58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-33,39; 33,11</t>
+          <t>-36,17; 33,49</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 2,4</t>
+          <t>-10,37; 1,99</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 0,01</t>
+          <t>-12,28; -0,29</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,41; 14,22</t>
+          <t>2,28; 14,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,31; 14,11</t>
+          <t>1,17; 15,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 9,62</t>
+          <t>-4,34; 10,08</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,18; 13,04</t>
+          <t>1,56; 12,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 6,61</t>
+          <t>-3,05; 6,57</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 2,92</t>
+          <t>-6,01; 3,14</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,75; 12,27</t>
+          <t>3,51; 11,72</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-29,69; 8,15</t>
+          <t>-30,92; 7,2</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-36,38; 0,74</t>
+          <t>-35,91; -0,66</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>6,98; 52,29</t>
+          <t>6,69; 56,22</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2,82; 39,96</t>
+          <t>2,61; 43,18</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 27,75</t>
+          <t>-10,2; 28,76</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>2,89; 37,96</t>
+          <t>3,59; 37,53</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 21,0</t>
+          <t>-8,08; 20,33</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 9,05</t>
+          <t>-16,1; 9,89</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>9,87; 38,9</t>
+          <t>9,47; 36,34</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 9,83</t>
+          <t>-5,62; 10,87</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-13,39; 1,82</t>
+          <t>-12,95; 1,94</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 4,96</t>
+          <t>-8,57; 4,96</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 12,0</t>
+          <t>-2,18; 12,41</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 7,17</t>
+          <t>-7,45; 6,71</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 35,36</t>
+          <t>-4,93; 36,2</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 9,2</t>
+          <t>-1,65; 9,5</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 2,37</t>
+          <t>-8,86; 1,96</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 30,95</t>
+          <t>-3,69; 33,55</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-14,06; 28,93</t>
+          <t>-14,35; 31,74</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-31,15; 5,84</t>
+          <t>-31,1; 6,09</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-20,68; 15,22</t>
+          <t>-20,49; 14,72</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 22,99</t>
+          <t>-3,51; 24,7</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-13,44; 14,26</t>
+          <t>-12,91; 13,77</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 72,0</t>
+          <t>-8,71; 72,25</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 21,03</t>
+          <t>-3,23; 21,29</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-17,53; 5,51</t>
+          <t>-17,6; 4,58</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 66,23</t>
+          <t>-7,82; 75,14</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 9,43</t>
+          <t>-8,75; 9,94</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-15,64; 1,43</t>
+          <t>-16,0; 2,17</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-17,08; -1,81</t>
+          <t>-17,7; -1,52</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,94; 17,39</t>
+          <t>2,8; 17,0</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 7,91</t>
+          <t>-7,07; 9,16</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,11; 16,72</t>
+          <t>4,11; 16,2</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,48; 11,5</t>
+          <t>-0,19; 10,93</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 3,62</t>
+          <t>-7,86; 3,79</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 7,33</t>
+          <t>-2,54; 7,52</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 17,09</t>
+          <t>-13,56; 17,63</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-24,08; 2,48</t>
+          <t>-24,36; 3,41</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-26,09; -3,44</t>
+          <t>-27,28; -3,14</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>4,12; 27,21</t>
+          <t>4,03; 27,2</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 12,26</t>
+          <t>-10,02; 14,09</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>5,6; 26,46</t>
+          <t>5,66; 25,53</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>0,69; 18,7</t>
+          <t>-0,27; 17,51</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 5,79</t>
+          <t>-11,64; 6,28</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 11,89</t>
+          <t>-3,63; 11,99</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 2,61</t>
+          <t>-1,08; 2,72</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,23</t>
+          <t>-1,53; 2,4</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>1,25; 9,47</t>
+          <t>1,07; 9,42</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,36</t>
+          <t>-0,26; 4,38</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 1,7</t>
+          <t>-2,65; 1,66</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>6,47; 21,66</t>
+          <t>6,26; 22,25</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 2,85</t>
+          <t>-0,08; 2,91</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,55</t>
+          <t>-1,54; 1,49</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>5,53; 15,09</t>
+          <t>5,51; 15,81</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 15,18</t>
+          <t>-5,73; 15,82</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 12,95</t>
+          <t>-7,92; 14,26</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>7,16; 53,44</t>
+          <t>6,22; 53,24</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 15,43</t>
+          <t>-0,92; 15,5</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 6,03</t>
+          <t>-8,8; 5,84</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>21,79; 75,42</t>
+          <t>21,23; 78,83</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 12,3</t>
+          <t>-0,34; 12,62</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 6,77</t>
+          <t>-6,2; 6,54</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>22,54; 63,98</t>
+          <t>22,45; 65,63</t>
         </is>
       </c>
     </row>
